--- a/packetMaker/packetData.xlsx
+++ b/packetMaker/packetData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\GraduationProject\packetMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ConsoleApplication1\packetMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB2492E-0C6C-48EB-ACDA-442FC1D87480}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6749DB-E082-44C6-B93D-C98CEECE37B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
+    <workbookView xWindow="2190" yWindow="750" windowWidth="22095" windowHeight="12390" activeTab="1" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
   <sheets>
     <sheet name="packetData" sheetId="1" r:id="rId1"/>
@@ -187,19 +187,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">        };
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                 }
-                 return nullptr;
-             }
-        };
-}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#하트비트 패킷</t>
   </si>
   <si>
@@ -303,11 +290,6 @@
   </si>
   <si>
     <t>I_NOTIFY_TERMINAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        public:
-           E_PACKET_TYPE type()  {{  return E_{0};  }}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">            void encode(Stream&amp; stream)
@@ -328,59 +310,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">        class PK_{0} : public Packet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                    case E_{0}: return new PK_{0}();</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#pragma once
-namespace ServerEngine
-{
-#define PACKET_FACTORY PacketFactory::getInstance()
-        class PacketFactory : public Singleton&lt;PacketFactory&gt;
-        {
-            friend Singleton;
-        public:
-            Packet* getPacket(Int64 packetType)
-            {
-                 switch(packetType)
-                 {</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#pragma once
-namespace ServerEngine
-{{
-        inline std::wstring PacketMakeDate()
-        {{
-             return L"{0}";
-        }}
-        enum E_PACKET_TYPE :  Int64
-        {{</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#pragma once
-namespace ServerEngine
-{
-       using namespace std;
-        class Packet
-        {
-        public:
-            Packet() {}
-            virtual ~Packet() {}
-            virtual E_PACKET_TYPE type() = 0;
-            virtual void encode(Stream&amp; stream)
-            {
-                  stream &lt;&lt; (Int64)(this-&gt;type());
-            }
-            virtual void decode(Stream&amp; stream)
-            {
-            }
-        };</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -440,6 +370,63 @@
   <si>
     <t>I_NOTIFY_READY</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        };
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                 }
+                 return nullptr;
+             }
+        };
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        public:
+           PacketType type()  {{  return E_{0};  }}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#pragma once
+        #define PACKET_MAKE_DATE "{0}"
+        enum PacketType :  Int64
+        {{</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#pragma once
+        class PacketFactory : public Singleton&lt;PacketFactory&gt;
+        {
+            friend Singleton;
+        public:
+            Packet* getPacket(Int64 packetType)
+            {
+                 switch(packetType)
+                 {</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#pragma once
+using namespace std;
+        class Packet
+        {
+        public:
+            virtual PacketType type() = 0;
+            virtual void encode(Stream&amp; stream)
+            {
+                  stream &lt;&lt; (Int64)(this-&gt;type());
+            }
+            virtual void decode(Stream&amp; stream)
+            {
+            }
+        };</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        class PK_{0} : public Packet</t>
   </si>
 </sst>
 </file>
@@ -560,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,6 +565,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -898,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -932,277 +922,277 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
         <v>44</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
         <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
         <v>51</v>
       </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>52</v>
-      </c>
-      <c r="F17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
         <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1216,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55FBCE9-7B35-45B4-B834-B519976B45C1}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1234,20 +1224,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="379.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="264" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>76</v>
+      <c r="B3" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -1255,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
@@ -1263,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1271,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1279,7 +1269,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1287,7 +1277,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1302,7 +1292,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1319,12 +1309,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1340,7 +1330,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1372,12 +1362,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="165" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1385,7 +1375,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="99" x14ac:dyDescent="0.3">
@@ -1393,7 +1383,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1439,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
@@ -1524,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1522,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
@@ -1577,7 +1567,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/packetMaker/packetData.xlsx
+++ b/packetMaker/packetData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ConsoleApplication1\packetMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6749DB-E082-44C6-B93D-C98CEECE37B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587A43FE-8935-4A5C-9AF2-C954AD6BDE3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="750" windowWidth="22095" windowHeight="12390" activeTab="1" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
+    <workbookView xWindow="1905" yWindow="510" windowWidth="22095" windowHeight="12390" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
   <sheets>
     <sheet name="packetData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="112">
   <si>
     <t>PK_NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -427,6 +427,102 @@
   </si>
   <si>
     <t xml:space="preserve">        class PK_{0} : public Packet</t>
+  </si>
+  <si>
+    <t>#ID 생성 패킷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_REQ_CREATE_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>password_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_DB_REQ_CREATE_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_ANS_CREATE_ID_FAIL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_ANS_CREATE_ID_SUCCESS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_DB_ANS_CREATE_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#캐릭터 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_MOVE_START_INPUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_MOVE_START</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_MOVE_STOP_INPUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_MOVE_STOP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>posX_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>posY_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>posZ_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirX_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirY_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirZ_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -886,24 +982,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -914,7 +1010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -925,212 +1021,188 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
+      <c r="D16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D17" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
+      <c r="E17" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
         <v>74</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>45</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
@@ -1142,57 +1214,286 @@
         <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B32" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C32" t="s">
         <v>45</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D32" t="s">
         <v>74</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E32" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="N35" t="s">
+        <v>110</v>
+      </c>
+      <c r="O35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1206,7 +1507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55FBCE9-7B35-45B4-B834-B519976B45C1}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/packetMaker/packetData.xlsx
+++ b/packetMaker/packetData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ConsoleApplication1\packetMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587A43FE-8935-4A5C-9AF2-C954AD6BDE3A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB95F84B-1B8F-44F0-9272-305BFFE7670D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="510" windowWidth="22095" windowHeight="12390" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
@@ -517,12 +517,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ping_</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int32</t>
   </si>
 </sst>
 </file>
@@ -984,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1444,10 +1443,10 @@
         <v>109</v>
       </c>
       <c r="N35" t="s">
+        <v>111</v>
+      </c>
+      <c r="O35" t="s">
         <v>110</v>
-      </c>
-      <c r="O35" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">

--- a/packetMaker/packetData.xlsx
+++ b/packetMaker/packetData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ConsoleApplication1\packetMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB95F84B-1B8F-44F0-9272-305BFFE7670D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD67DF6-953C-49DF-83FB-F7525EB36433}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="510" windowWidth="22095" windowHeight="12390" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
   <si>
     <t>PK_NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -211,13 +211,7 @@
     <t>S_ANS_ID_PW_SUCCESS</t>
   </si>
   <si>
-    <t>ip_</t>
-  </si>
-  <si>
     <t>UInt32</t>
-  </si>
-  <si>
-    <t>port_</t>
   </si>
   <si>
     <t>name_</t>
@@ -469,10 +463,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#캐릭터 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>C_MOVE_START_INPUT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -522,6 +512,38 @@
   </si>
   <si>
     <t>Int32</t>
+  </si>
+  <si>
+    <t>chattingServerIp_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chattingServerPort_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameServerIp_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameServerPort_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#게임서버 캐릭터 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#게임서버 패킷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_REQ_GAME_START</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_ANS_GAME_START</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -981,20 +1003,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1017,42 +1039,42 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1067,94 +1089,94 @@
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="D13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="H16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -1165,18 +1187,18 @@
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1184,315 +1206,342 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
         <v>42</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" t="s">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>48</v>
-      </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
         <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="7" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
         <v>50</v>
       </c>
-      <c r="F23" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M35" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="N35" t="s">
-        <v>111</v>
-      </c>
-      <c r="O35" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="H38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="J38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N38" t="s">
+        <v>108</v>
+      </c>
+      <c r="O38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="H40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="L40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M40" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1578,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1537,7 +1586,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="33" x14ac:dyDescent="0.3">
@@ -1545,7 +1594,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
@@ -1553,7 +1602,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1561,7 +1610,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1569,7 +1618,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1577,7 +1626,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1663,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1630,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1667,7 +1716,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1675,7 +1724,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="99" x14ac:dyDescent="0.3">
@@ -1683,7 +1732,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
@@ -1814,7 +1863,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1822,7 +1871,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="67.5" x14ac:dyDescent="0.25">
@@ -1867,7 +1916,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/packetMaker/packetData.xlsx
+++ b/packetMaker/packetData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ConsoleApplication1\packetMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD67DF6-953C-49DF-83FB-F7525EB36433}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4498D3-A789-41FA-A53F-CC9C845F4408}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="510" windowWidth="22095" windowHeight="12390" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
   <sheets>
     <sheet name="packetData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="124">
   <si>
     <t>PK_NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -495,18 +495,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>dirX_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dirY_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dirZ_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ping_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -543,6 +531,46 @@
   </si>
   <si>
     <t>C_ANS_GAME_START</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#게임 조인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_REQ_JOIN_MAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_ANS_JOIN_MAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRedTeam_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quatX_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quatY_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quatZ_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quatW_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>state_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1003,20 +1031,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1206,25 +1234,25 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
         <v>72</v>
@@ -1408,50 +1436,74 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>97</v>
       </c>
@@ -1477,33 +1529,39 @@
         <v>100</v>
       </c>
       <c r="I38" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P38" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q38" t="s">
         <v>104</v>
       </c>
-      <c r="J38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="N38" t="s">
-        <v>108</v>
-      </c>
-      <c r="O38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>99</v>
       </c>
@@ -1529,19 +1587,106 @@
         <v>100</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>100</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>100</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>106</v>
+        <v>120</v>
+      </c>
+      <c r="N40" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="T43" t="s">
+        <v>122</v>
+      </c>
+      <c r="U43" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/packetMaker/packetData.xlsx
+++ b/packetMaker/packetData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ConsoleApplication1\packetMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4498D3-A789-41FA-A53F-CC9C845F4408}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD991B59-FC85-4B59-A94A-0258AC8E5C68}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
+    <workbookView xWindow="1500" yWindow="270" windowWidth="22095" windowHeight="12390" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
   <sheets>
     <sheet name="packetData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="127">
   <si>
     <t>PK_NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -471,14 +471,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>C_MOVE_STOP_INPUT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>S_MOVE_STOP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -499,78 +491,99 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>chattingServerIp_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chattingServerPort_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameServerIp_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gameServerPort_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#게임서버 캐릭터 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#게임서버 패킷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_REQ_GAME_START</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_ANS_GAME_START</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#게임 조인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_REQ_JOIN_MAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_ANS_JOIN_MAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRedTeam_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quatX_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quatY_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quatZ_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quatW_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Int32</t>
-  </si>
-  <si>
-    <t>chattingServerIp_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>chattingServerPort_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameServerIp_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gameServerPort_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#게임서버 캐릭터 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#게임서버 패킷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_REQ_GAME_START</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_ANS_GAME_START</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#게임 조인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_REQ_JOIN_MAP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_ANS_JOIN_MAP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRedTeam_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>quatX_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>quatY_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>quatZ_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>quatW_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>state_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UInt64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oid_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UInt64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oid_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosX_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosY_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosZ_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1031,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41:U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1079,6 +1092,12 @@
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -1114,6 +1133,12 @@
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="B11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1234,25 +1259,25 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J21" t="s">
         <v>72</v>
@@ -1438,22 +1463,22 @@
     </row>
     <row r="33" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -1461,232 +1486,180 @@
         <v>96</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I37" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B38" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" t="s">
-        <v>101</v>
+      <c r="B38" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" t="s">
-        <v>103</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" t="s">
+        <v>98</v>
       </c>
       <c r="I38" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M38" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P38" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="H41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O41" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="P41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="R41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S41" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M43" s="7" t="s">
+      <c r="T41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U41" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="R43" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S43" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="T43" t="s">
-        <v>122</v>
-      </c>
-      <c r="U43" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/packetMaker/packetData.xlsx
+++ b/packetMaker/packetData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ConsoleApplication1\packetMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD991B59-FC85-4B59-A94A-0258AC8E5C68}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09F6BF-239F-4F08-A04B-71FBA05F6F03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="270" windowWidth="22095" windowHeight="12390" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
   <sheets>
     <sheet name="packetData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="131">
   <si>
     <t>PK_NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -584,6 +584,22 @@
   </si>
   <si>
     <t>PosZ_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UInt32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveNum_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>state_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1046,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41:U41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1059,6 +1075,8 @@
     <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1485,47 +1503,59 @@
       <c r="A37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>124</v>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>98</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>98</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>98</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>98</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>118</v>
+      </c>
+      <c r="R37" t="s">
+        <v>127</v>
+      </c>
+      <c r="S37" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -1533,52 +1563,64 @@
         <v>97</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="D38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="F38" t="s">
         <v>98</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H38" t="s">
         <v>98</v>
       </c>
       <c r="I38" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>98</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N38" s="7" t="s">
         <v>98</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="R38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S38" s="7" t="s">
         <v>118</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">

--- a/packetMaker/packetData.xlsx
+++ b/packetMaker/packetData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ConsoleApplication1\packetMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09F6BF-239F-4F08-A04B-71FBA05F6F03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F9994F-B15F-4D15-86FD-67F4AF780A58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="142">
   <si>
     <t>PK_NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -600,6 +600,50 @@
   </si>
   <si>
     <t>state_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#총알 발사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_SHELL_SHOOT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_SHELL_SHOOT_INPUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>velocity_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#총알 데미지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_SHEEL_DEMAGE_INPUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_SHEEL_DEMAGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>demage_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1060,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
-  <dimension ref="A1:U41"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1702,6 +1746,162 @@
       </c>
       <c r="U41" s="7" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P43" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q44" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R44" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S44" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/packetMaker/packetData.xlsx
+++ b/packetMaker/packetData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ConsoleApplication1\packetMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F9994F-B15F-4D15-86FD-67F4AF780A58}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C34902-7DE0-4130-83ED-5AD9B159735B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="149">
   <si>
     <t>PK_NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -619,10 +619,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>velocity_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>#총알 데미지</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -644,6 +640,38 @@
   </si>
   <si>
     <t>speed_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#접속 중인이 채크</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_CHECK_ALREADY_LOGIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_CHECK_ALREADY_LOGIN_SUCCESS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_CHECK_ALREADY_LOGIN_FAIL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UInt64</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I_DB_REQ_LOGOUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1104,15 +1132,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
@@ -1123,7 +1151,7 @@
     <col min="19" max="19" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1134,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1145,12 +1173,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -1161,117 +1189,99 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>45</v>
@@ -1280,100 +1290,106 @@
         <v>46</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>50</v>
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>95</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="J21" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" t="s">
         <v>72</v>
       </c>
-      <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
+      <c r="K22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
@@ -1381,44 +1397,50 @@
       <c r="C23" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>48</v>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
@@ -1435,7 +1457,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -1444,21 +1466,15 @@
         <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -1481,211 +1497,223 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" t="s">
         <v>72</v>
       </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
         <v>72</v>
       </c>
       <c r="C32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
         <v>43</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>72</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" t="s">
-        <v>130</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M37" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="R37" t="s">
-        <v>127</v>
-      </c>
-      <c r="S37" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" t="s">
         <v>130</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="J38" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>98</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>98</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N38" s="7" t="s">
         <v>98</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="R38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S38" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="T38" s="7" t="s">
+      <c r="R38" t="s">
         <v>127</v>
       </c>
-      <c r="U38" s="7" t="s">
+      <c r="S38" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>111</v>
+        <v>97</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>2</v>
@@ -1693,203 +1721,197 @@
       <c r="C41" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D41" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" t="s">
-        <v>119</v>
-      </c>
-      <c r="G41" t="s">
-        <v>114</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="N41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="S41" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="T41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U41" s="7" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>131</v>
+        <v>113</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M43" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="N43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P43" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>98</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H44" s="7" t="s">
         <v>98</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>98</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>98</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N44" s="7" t="s">
         <v>98</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q44" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="R44" s="7" t="s">
+      <c r="P44" t="s">
         <v>134</v>
       </c>
-      <c r="S44" s="7" t="s">
-        <v>141</v>
+      <c r="Q44" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>120</v>
@@ -1897,11 +1919,78 @@
       <c r="C47" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E47" t="s">
-        <v>140</v>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/packetMaker/packetData.xlsx
+++ b/packetMaker/packetData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ConsoleApplication1\packetMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C34902-7DE0-4130-83ED-5AD9B159735B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED95D658-0DB0-4871-8B6B-FA88C2460FE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
+    <workbookView xWindow="1500" yWindow="270" windowWidth="22095" windowHeight="12390" xr2:uid="{E7DD87D0-5245-4C21-B1B3-252F2F6E76BB}"/>
   </bookViews>
   <sheets>
     <sheet name="packetData" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="156">
   <si>
     <t>PK_NONE</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -643,10 +643,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#접속 중인이 채크</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>C_CHECK_ALREADY_LOGIN</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -672,6 +668,38 @@
   </si>
   <si>
     <t>name_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#접속 중인지 채크</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#탱크 사망 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_TANK_DEAD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#탱크 리스폰 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_TANK_RESPONE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_TANK_RESPONE_RESPONSE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#나기가 처리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_TANK_OUT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1132,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71FCBB0-49A2-4914-BDE8-8730A365A6AA}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1196,13 +1224,13 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1943,14 +1971,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>2</v>
@@ -1959,15 +1987,15 @@
         <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>2</v>
@@ -1976,21 +2004,128 @@
         <v>43</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
